--- a/Put Portfolios/Weekly_TwoSigma.xlsx
+++ b/Put Portfolios/Weekly_TwoSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>576347.4972637682</v>
+        <v>539790.3767535315</v>
       </c>
       <c r="E2" t="n">
-        <v>-413089.2328665548</v>
+        <v>-446696.8178701176</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>507392.7347916663</v>
+        <v>476211.7843257434</v>
       </c>
       <c r="E3" t="n">
-        <v>-411369.9431864907</v>
+        <v>-441769.3551157077</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>440031.5405080845</v>
+        <v>415141.3832595298</v>
       </c>
       <c r="E4" t="n">
-        <v>-408057.0853179067</v>
+        <v>-434333.7009997235</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>375134.1416486989</v>
+        <v>357219.7849188322</v>
       </c>
       <c r="E5" t="n">
-        <v>-402280.4320251262</v>
+        <v>-423749.2441582233</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>313696.4844537778</v>
+        <v>303036.5297358986</v>
       </c>
       <c r="E6" t="n">
-        <v>-393044.0370678814</v>
+        <v>-409426.4441589591</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>256720.4830456048</v>
+        <v>253078.0862397799</v>
       </c>
       <c r="E7" t="n">
-        <v>-379345.9863238885</v>
+        <v>-390878.8324728798</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205079.1033429376</v>
+        <v>207690.2335481844</v>
       </c>
       <c r="E8" t="n">
-        <v>-360313.3138743897</v>
+        <v>-367760.6299822775</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>159400.5393380361</v>
+        <v>167058.8136914442</v>
       </c>
       <c r="E9" t="n">
-        <v>-335317.8257271254</v>
+        <v>-339885.9946568199</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119997.5932229262</v>
+        <v>131208.8642684989</v>
       </c>
       <c r="E10" t="n">
-        <v>-304046.7196900693</v>
+        <v>-307229.8888975673</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>86852.72285694806</v>
+        <v>100019.1084746999</v>
       </c>
       <c r="E11" t="n">
-        <v>-266517.5379038815</v>
+        <v>-269913.5895091685</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>59653.3819678803</v>
+        <v>73247.09821871184</v>
       </c>
       <c r="E12" t="n">
-        <v>-223042.8266407834</v>
+        <v>-228179.5445829586</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>37861.6512571117</v>
+        <v>50559.91747848033</v>
       </c>
       <c r="E13" t="n">
-        <v>-174160.5051993861</v>
+        <v>-182360.6701409923</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>20798.59580129595</v>
+        <v>31565.92097888917</v>
       </c>
       <c r="E14" t="n">
-        <v>-120549.5085030359</v>
+        <v>-132848.6114583856</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7726.116502289715</v>
+        <v>15844.08530319098</v>
       </c>
       <c r="E15" t="n">
-        <v>-62947.93564987621</v>
+        <v>-80064.39195188593</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2085.341215096414</v>
+        <v>2968.810193511726</v>
       </c>
       <c r="E16" t="n">
-        <v>-2085.341215096414</v>
+        <v>-24433.61187936732</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9308.615604137514</v>
+        <v>-7470.837338485143</v>
       </c>
       <c r="E17" t="n">
-        <v>61365.43654802841</v>
+        <v>33632.79577083367</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-14531.46225918746</v>
+        <v>-15857.53781384743</v>
       </c>
       <c r="E18" t="n">
-        <v>126816.6420451444</v>
+        <v>93752.15047766923</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18244.99497568797</v>
+        <v>-22537.28247425201</v>
       </c>
       <c r="E19" t="n">
-        <v>193777.1614808098</v>
+        <v>155578.4609994625</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20844.4853583362</v>
+        <v>-27815.23376349714</v>
       </c>
       <c r="E20" t="n">
-        <v>261851.7232503275</v>
+        <v>218806.5648924152</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22637.9803697684</v>
+        <v>-31954.90734542635</v>
       </c>
       <c r="E21" t="n">
-        <v>330732.2803910612</v>
+        <v>283172.9464926839</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-23858.89919422051</v>
+        <v>-35179.72542178191</v>
       </c>
       <c r="E22" t="n">
-        <v>400185.4137187751</v>
+        <v>348454.1835985262</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-24679.7882653559</v>
+        <v>-37676.10624097838</v>
       </c>
       <c r="E23" t="n">
-        <v>470038.5767998056</v>
+        <v>414463.8579615275</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-25225.4234641297</v>
+        <v>-39597.41129084052</v>
       </c>
       <c r="E24" t="n">
-        <v>540166.9937531977</v>
+        <v>481048.6080938633</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-25584.28176994952</v>
+        <v>-41068.23592156283</v>
       </c>
       <c r="E25" t="n">
-        <v>610482.1875995438</v>
+        <v>548083.8386453388</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-25818.0056940195</v>
+        <v>-42188.68020901019</v>
       </c>
       <c r="E26" t="n">
-        <v>680922.5158276397</v>
+        <v>615469.4495400894</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-25968.86609144374</v>
+        <v>-43038.36412719727</v>
       </c>
       <c r="E27" t="n">
-        <v>751445.7075823814</v>
+        <v>683125.8208041001</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>600499.1384142097</v>
+        <v>608426.2713948998</v>
       </c>
       <c r="E2" t="n">
-        <v>-409422.8242239874</v>
+        <v>-450966.4498446663</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>556571.1117666698</v>
+        <v>568771.641502042</v>
       </c>
       <c r="E3" t="n">
-        <v>-406917.6571870125</v>
+        <v>-447380.5605032562</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>513486.5478277365</v>
+        <v>529966.9500573995</v>
       </c>
       <c r="E4" t="n">
-        <v>-403569.0274414311</v>
+        <v>-442944.7327136307</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>471411.9154412569</v>
+        <v>492116.9959628948</v>
       </c>
       <c r="E5" t="n">
-        <v>-399210.4661433958</v>
+        <v>-437554.1675738674</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>430516.0083207655</v>
+        <v>455321.8783688625</v>
       </c>
       <c r="E6" t="n">
-        <v>-393673.1795793723</v>
+        <v>-431108.7659336316</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>390963.9168222372</v>
+        <v>419674.6074066078</v>
       </c>
       <c r="E7" t="n">
-        <v>-386792.0773933858</v>
+        <v>-423515.5176616183</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>352911.1386673659</v>
+        <v>385259.0571066753</v>
       </c>
       <c r="E8" t="n">
-        <v>-378411.6618637423</v>
+        <v>-414690.5487272828</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>316498.22788219</v>
+        <v>352148.3232298987</v>
       </c>
       <c r="E9" t="n">
-        <v>-368391.3789644035</v>
+        <v>-404560.7633697913</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>281846.3001352159</v>
+        <v>320403.5180566499</v>
       </c>
       <c r="E10" t="n">
-        <v>-356610.1130268627</v>
+        <v>-393065.0493087722</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>249053.6114966576</v>
+        <v>290073.0066110875</v>
       </c>
       <c r="E11" t="n">
-        <v>-342969.6079809063</v>
+        <v>-380155.0415200665</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>218193.3211163868</v>
+        <v>261192.0657778118</v>
       </c>
       <c r="E12" t="n">
-        <v>-327396.7046766622</v>
+        <v>-365795.4631190744</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>189312.4486723827</v>
+        <v>233782.9300002282</v>
       </c>
       <c r="E13" t="n">
-        <v>-309844.3834361515</v>
+        <v>-349964.0796623898</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>162431.9533937103</v>
+        <v>207855.1748362183</v>
       </c>
       <c r="E14" t="n">
-        <v>-290291.6850303091</v>
+        <v>-332651.3155921318</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137547.7979828479</v>
+        <v>183406.3822471547</v>
       </c>
       <c r="E15" t="n">
-        <v>-268742.6467566567</v>
+        <v>-313859.5889469275</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114632.819434756</v>
+        <v>160423.0284796637</v>
       </c>
       <c r="E16" t="n">
-        <v>-245224.4316202338</v>
+        <v>-293602.4234801504</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>93639.20848404754</v>
+        <v>138881.5359771175</v>
       </c>
       <c r="E17" t="n">
-        <v>-219784.8488864274</v>
+        <v>-271903.3967484286</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>74501.39729113487</v>
+        <v>118749.4340905081</v>
       </c>
       <c r="E18" t="n">
-        <v>-192489.4663948253</v>
+        <v>-248794.9794007699</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57139.16708352832</v>
+        <v>99986.578635475</v>
       </c>
       <c r="E19" t="n">
-        <v>-163418.502917917</v>
+        <v>-224317.315621535</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>41460.80956923358</v>
+        <v>82546.38683385942</v>
       </c>
       <c r="E20" t="n">
-        <v>-132663.666747697</v>
+        <v>-198516.9881888826</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>27366.20401195264</v>
+        <v>66377.05126479284</v>
       </c>
       <c r="E21" t="n">
-        <v>-100325.0786204631</v>
+        <v>-171445.8045236812</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14749.70242144718</v>
+        <v>51422.7036348615</v>
       </c>
       <c r="E22" t="n">
-        <v>-66508.38652645373</v>
+        <v>-143159.6329193445</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3502.745601586317</v>
+        <v>37624.50608351724</v>
       </c>
       <c r="E23" t="n">
-        <v>-31322.14966179979</v>
+        <v>-113717.3112364208</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-6483.839191018648</v>
+        <v>24921.65410449082</v>
       </c>
       <c r="E24" t="n">
-        <v>5124.459230110054</v>
+        <v>-83179.64398117918</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-15317.88378148985</v>
+        <v>13252.28081921076</v>
       </c>
       <c r="E25" t="n">
-        <v>42723.60832415366</v>
+        <v>-51608.49803219125</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-23104.27240366559</v>
+        <v>2554.257196862609</v>
       </c>
       <c r="E26" t="n">
-        <v>81370.41338649273</v>
+        <v>-19066.00242027139</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-29943.67163599624</v>
+        <v>-7234.113146804795</v>
       </c>
       <c r="E27" t="n">
-        <v>120964.2078386769</v>
+        <v>14386.14647032921</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-35931.57422399315</v>
+        <v>-16173.50270138848</v>
       </c>
       <c r="E28" t="n">
-        <v>161409.4989351948</v>
+        <v>48687.27615001354</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-41157.62635651352</v>
+        <v>-24323.06799988349</v>
       </c>
       <c r="E29" t="n">
-        <v>202616.6404871892</v>
+        <v>83778.23008578652</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-45705.20352938858</v>
+        <v>-31740.05055354828</v>
       </c>
       <c r="E30" t="n">
-        <v>244502.256998829</v>
+        <v>119601.7667663898</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-49651.19836587253</v>
+        <v>-38479.46335262152</v>
       </c>
       <c r="E31" t="n">
-        <v>286989.4558468598</v>
+        <v>156102.8732015845</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-53065.98406697073</v>
+        <v>-44593.85475378221</v>
       </c>
       <c r="E32" t="n">
-        <v>330007.8638302765</v>
+        <v>193229.0010346918</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-56013.51897852474</v>
+        <v>-50133.14123266425</v>
       </c>
       <c r="E33" t="n">
-        <v>373493.5226032372</v>
+        <v>230930.2337900778</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-58551.56059745619</v>
+        <v>-55144.50046039246</v>
       </c>
       <c r="E34" t="n">
-        <v>417388.6746688206</v>
+        <v>269159.3937966176</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-60731.96078810779</v>
+        <v>-59672.31639248508</v>
       </c>
       <c r="E35" t="n">
-        <v>461641.4681626838</v>
+        <v>307872.097098793</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-62601.01771433245</v>
+        <v>-63758.16847107238</v>
       </c>
       <c r="E36" t="n">
-        <v>506205.604920974</v>
+        <v>347026.7642544737</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-64199.86376427851</v>
+        <v>-67440.85758132338</v>
       </c>
       <c r="E37" t="n">
-        <v>551039.9525555428</v>
+        <v>386584.5943784907</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-65564.87237216791</v>
+        <v>-70756.46202355839</v>
       </c>
       <c r="E38" t="n">
-        <v>596108.1376321681</v>
+        <v>426509.5091705237</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-66728.07000296506</v>
+        <v>-73738.41742595614</v>
       </c>
       <c r="E39" t="n">
-        <v>641378.1336858858</v>
+        <v>466768.0730023939</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-67717.54258787329</v>
+        <v>-76417.61519904072</v>
       </c>
       <c r="E40" t="n">
-        <v>686821.8547854924</v>
+        <v>507329.3944635773</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-68557.82834488156</v>
+        <v>-78822.5147994438</v>
       </c>
       <c r="E41" t="n">
-        <v>732414.762712999</v>
+        <v>548165.0140974424</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-69270.29118117467</v>
+        <v>-80979.26570985302</v>
       </c>
       <c r="E42" t="n">
-        <v>778135.4935612206</v>
+        <v>589248.782421301</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-69873.47076525929</v>
+        <v>-82911.83564278814</v>
       </c>
       <c r="E43" t="n">
-        <v>823965.5076616507</v>
+        <v>630556.7317226341</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-70383.40690179609</v>
+        <v>-84642.14203024266</v>
       </c>
       <c r="E44" t="n">
-        <v>869888.7652096289</v>
+        <v>672066.9445694473</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-70813.9370750126</v>
+        <v>-86190.18436503455</v>
       </c>
       <c r="E45" t="n">
-        <v>915891.4287209271</v>
+        <v>713759.4214689236</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-71176.9669849097</v>
+        <v>-87574.17541114497</v>
       </c>
       <c r="E46" t="n">
-        <v>961961.5924955447</v>
+        <v>755615.9496570812</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-71482.71462285391</v>
+        <v>-88810.66969978188</v>
       </c>
       <c r="E47" t="n">
-        <v>1008089.038542115</v>
+        <v>797619.9746027122</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-71739.92895702997</v>
+        <v>-89914.688077094</v>
       </c>
       <c r="E48" t="n">
-        <v>1054265.017892454</v>
+        <v>839756.4754596681</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-71956.08465850636</v>
+        <v>-90899.83737111387</v>
       </c>
       <c r="E49" t="n">
-        <v>1100482.055875493</v>
+        <v>882011.8453999163</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-72137.55452681214</v>
+        <v>-91778.42450319351</v>
       </c>
       <c r="E50" t="n">
-        <v>1146733.779691702</v>
+        <v>924373.7775021046</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-72289.76139771235</v>
+        <v>-92561.56458657923</v>
       </c>
       <c r="E51" t="n">
-        <v>1193014.766505316</v>
+        <v>966831.1566529869</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-72417.31135910917</v>
+        <v>-93259.2827359791</v>
       </c>
       <c r="E52" t="n">
-        <v>1239320.410228434</v>
+        <v>1009373.957737855</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-72524.11008387165</v>
+        <v>-93880.60946091857</v>
       </c>
       <c r="E53" t="n">
-        <v>1285646.805188186</v>
+        <v>1051993.150247184</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-72613.46402753983</v>
+        <v>-94433.66963628246</v>
       </c>
       <c r="E54" t="n">
-        <v>1331990.644929033</v>
+        <v>1094680.609306088</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-72688.16814781239</v>
+        <v>-94925.76513934004</v>
       </c>
       <c r="E55" t="n">
-        <v>1378349.134493275</v>
+        <v>1137429.033037298</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-72750.58169231526</v>
+        <v>-95363.45131719482</v>
       </c>
       <c r="E56" t="n">
-        <v>1424719.914633288</v>
+        <v>1180231.866093711</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-72802.69347978295</v>
+        <v>-95752.60750511913</v>
       </c>
       <c r="E57" t="n">
-        <v>1471100.996530334</v>
+        <v>1223083.229140055</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-72846.17797392112</v>
+        <v>-96098.50185742536</v>
       </c>
       <c r="E58" t="n">
-        <v>1517490.705720711</v>
+        <v>1265977.854022017</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-72882.44332364295</v>
+        <v>-96405.85078095127</v>
       </c>
       <c r="E59" t="n">
-        <v>1563887.634055504</v>
+        <v>1308911.024332759</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-72912.67242152496</v>
+        <v>-96678.8732791162</v>
       </c>
       <c r="E60" t="n">
-        <v>1610290.598642137</v>
+        <v>1351878.521068862</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-72937.8579165946</v>
+        <v>-96921.34052377233</v>
       </c>
       <c r="E61" t="n">
-        <v>1656698.606831582</v>
+        <v>1394876.573058474</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-72958.83200942739</v>
+        <v>-97136.62097443904</v>
       </c>
       <c r="E62" t="n">
-        <v>1703110.826423264</v>
+        <v>1437901.811842075</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>928003.9541353633</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-378191.877836251</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>891764.8907867302</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-377873.5431448165</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>855542.3570089603</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-377538.678882519</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>819346.7238760092</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-377176.9139754025</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>783193.0758490602</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-376773.1639622839</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>747102.4753711044</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-376306.366400172</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>711103.2339296442</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-375748.2098015646</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>675232.0759081618</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-375061.9697829793</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>639535.0714474078</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-374201.576203666</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>604068.2187770526</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-373111.0308339536</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>568897.5754327493</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-371724.2761381892</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>534098.8695137629</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-369965.5840171082</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>499756.5628394185</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-367750.492651385</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>465962.3825408524</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-364987.2749098835</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>432813.3809842802</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-361578.8784263882</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400409.6211772274</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-357425.2401933734</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>368851.6123077073</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-352425.8510228259</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>338237.6356541988</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-346482.429636267</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308661.1042125435</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-339501.5630378546</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>280208.0908797784</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-331397.178330552</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>252955.1418932323</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-322092.7292770308</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>226967.4671310089</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-311523.0059991865</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>202297.5698092114</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-299635.5052809165</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>178984.3479501308</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-286391.3290999295</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>157052.671263083</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-271765.6077469097</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>136513.4117427568</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-255747.4692271684</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>117363.8856809584</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-238339.5972488992</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>99588.64960711267</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-219557.4352826773</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>83160.58305680103</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-199428.1037929214</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68042.18669559996</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-177989.1021140549</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>54187.02454697564</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-155286.8662226117</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>41541.24303462823</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-131375.2496948915</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>30045.10630955766</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-106313.9883798945</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>19634.49595415307</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-80167.20069523153</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>10242.33277936197</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-53001.96582995506</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1799.888317820438</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-24887.01225142903</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-5762.036826844164</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4108.460643973934</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-12512.08182648348</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>33915.81368440218</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-18517.44799869732</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64467.84555225592</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-23843.17453380607</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>95699.51705721472</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-28551.56220188106</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>127548.5274292073</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-32701.73571118881</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159955.7519599671</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-36349.33260522173</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>192865.5531060018</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-39546.30483874016</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>226225.9789125509</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-42340.81831094639</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>259988.8634804122</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-44777.2354950794</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>294109.8443363468</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-46896.16673056239</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>328548.3111409314</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-48734.57658958014</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>363267.2993219811</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-50325.9328639641</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>398233.3410876648</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-51700.38702863454</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>433416.2849630619</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-52884.9764323846</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>468789.0935993794</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-53903.83987241972</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>504327.6281994119</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-54778.43957045091</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>540010.4265414482</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-55527.78384565042</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>575818.4803063164</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-56168.64594724496</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>611735.0162447894</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-56715.77555185054</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>647745.2846802513</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-57182.10034156912</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>683836.3579306003</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-57578.91585887716</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>719996.9404533599</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-57916.06248883678</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>756217.1918634678</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-58202.08895695622</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>792488.563435416</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-58444.40216299477</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>828803.6482694451</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-58649.40350913017</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>865156.0449633771</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-58822.61213745124</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>901540.2343751236</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-58968.7756787142</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>937951.4688739282</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-59091.96924304247</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>974385.6733496675</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-59195.68346416244</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1010839.357168615</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-59282.90245118426</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1047309.536221661</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-59356.17251405818</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1083793.664198854</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-59417.6625177286</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1120289.572235252</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-59469.2166916635</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1156795.416101384</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-59512.40068083622</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1193309.630152279</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>362646.8421036191</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-552211.8691591716</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319072.0183438351</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-536264.3304425215</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278437.5454625214</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-517376.4408474013</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>240842.3720381985</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-495449.2517952902</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>206324.3371486405</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-470444.9242084143</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>174864.3118662472</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-442382.5870143735</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146392.8058795813</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-411331.7305246054</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>120798.1045119292</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-377404.0694158234</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>97935.09331637248</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-340744.7181349461</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>77634.07723456115</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-301523.3717403234</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>59709.07391907311</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-259926.0125793774</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43965.23052973927</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-216147.4934922772</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>30205.16377854091</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-170385.1977670416</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18234.14581506029</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-122833.8532540882</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7864.151282318328</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-73681.48531039612</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1083.154917622296</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-23106.42903390274</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-8774.370088260721</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>28724.71827189286</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-15363.10770663414</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>81658.34312995346</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20989.40941213843</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>135554.4039008832</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-25779.67718015431</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>190286.4986093013</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29847.00009330368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>245741.5381725859</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-33291.76597306613</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>301819.1347692575</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-36202.46535393529</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>358430.7978648224</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-38656.61231641736</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>415499.0133787743</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-40721.72254433787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>472956.2656272878</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-42456.30306713218</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>530744.0475809276</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-43910.82023636249</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>588811.8928881312</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-45128.62253414037</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>647116.4530667874</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-46146.80292750496</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>705620.6351498568</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46996.99185744178</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>764292.8086963542</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-47706.07681384817</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>823106.0862163818</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-48296.84803786885</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>882037.677468795</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-48788.57244091298</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>941068.315542185</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-49197.49954513762</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1000181.750914394</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-49537.30431703334</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1059364.308618932</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-49819.4723399968</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1118604.503072403</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-50053.63298242978</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1177892.704906404</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-50247.84616912122</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1237220.854196147</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-50408.84813772271</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1296582.214703979</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-50542.26122257279</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1355971.164095563</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-50652.77230295383</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1415383.015491616</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-50744.2841174007</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1474813.866153603</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-50820.04320514996</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1534260.469542288</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-50882.74780756405</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1593720.127416308</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-50934.63865768143</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1653190.599042625</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-50977.57521169464</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1712670.024965046</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>407566.6604476494</v>
+        <v>319693.3130153093</v>
       </c>
       <c r="E2" t="n">
-        <v>-263629.9606227554</v>
+        <v>-317677.0404611039</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>346809.1065717288</v>
+        <v>271294.2631663437</v>
       </c>
       <c r="E3" t="n">
-        <v>-255334.3641827907</v>
+        <v>-297835.1531070275</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>289270.2292757577</v>
+        <v>226228.8495640812</v>
       </c>
       <c r="E4" t="n">
-        <v>-243820.0911628765</v>
+        <v>-274659.6295062479</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>235561.0016742781</v>
+        <v>184580.476763004</v>
       </c>
       <c r="E5" t="n">
-        <v>-228476.1684484709</v>
+        <v>-248067.065104283</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>186191.290825694</v>
+        <v>146367.4883102397</v>
       </c>
       <c r="E6" t="n">
-        <v>-208792.7289811697</v>
+        <v>-218039.1163540052</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141527.2132124025</v>
+        <v>111548.843631563</v>
       </c>
       <c r="E7" t="n">
-        <v>-184403.6562785759</v>
+        <v>-184616.8238296398</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>101766.9499212773</v>
+        <v>80031.98263717716</v>
       </c>
       <c r="E8" t="n">
-        <v>-155110.7692538158</v>
+        <v>-147892.7476209836</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>66936.38749243008</v>
+        <v>51681.92367316063</v>
       </c>
       <c r="E9" t="n">
-        <v>-120888.1813667778</v>
+        <v>-108001.8693819581</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>36902.33323843144</v>
+        <v>26330.77104551475</v>
       </c>
       <c r="E10" t="n">
-        <v>-81869.08530489114</v>
+        <v>-65112.08480656186</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11398.67609638768</v>
+        <v>3786.980185968916</v>
       </c>
       <c r="E11" t="n">
-        <v>-38319.59213104963</v>
+        <v>-19414.93846306562</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-9940.086122356703</v>
+        <v>-16156.09005594579</v>
       </c>
       <c r="E12" t="n">
-        <v>9394.795966091251</v>
+        <v>28882.92849806174</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-27543.26590181673</v>
+        <v>-33712.63918905989</v>
       </c>
       <c r="E13" t="n">
-        <v>60844.76650251649</v>
+        <v>79567.31656798971</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-41870.5991111988</v>
+        <v>-49098.0575196647</v>
       </c>
       <c r="E14" t="n">
-        <v>115570.5836090197</v>
+        <v>132422.835440427</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-53383.8829578347</v>
+        <v>-62523.7714259737</v>
       </c>
       <c r="E15" t="n">
-        <v>173110.4500782691</v>
+        <v>187238.0587371601</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-62525.06483591843</v>
+        <v>-74193.25977008534</v>
       </c>
       <c r="E16" t="n">
-        <v>233022.4185160706</v>
+        <v>243809.5075960905</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-69701.04509309246</v>
+        <v>-84299.14362445915</v>
       </c>
       <c r="E17" t="n">
-        <v>294899.5885747818</v>
+        <v>301944.5609447587</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-75274.63648427957</v>
+        <v>-93021.21864597779</v>
       </c>
       <c r="E18" t="n">
-        <v>358379.1474994799</v>
+        <v>361463.4231262822</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-79560.64820179669</v>
+        <v>-100525.2848496591</v>
       </c>
       <c r="E19" t="n">
-        <v>423146.2860978481</v>
+        <v>422200.2941256429</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-82825.87641108835</v>
+        <v>-106962.6273632411</v>
       </c>
       <c r="E20" t="n">
-        <v>488934.2082044418</v>
+        <v>484003.888815103</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-85291.80523602363</v>
+        <v>-112470.0097062854</v>
       </c>
       <c r="E21" t="n">
-        <v>555521.4296953917</v>
+        <v>546737.4436751008</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-87138.97109700141</v>
+        <v>-117170.0547160245</v>
       </c>
       <c r="E22" t="n">
-        <v>622727.4141502992</v>
+        <v>610278.3358684038</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-88512.15181713368</v>
+        <v>-121171.9047117734</v>
       </c>
       <c r="E23" t="n">
-        <v>690407.3837460522</v>
+        <v>674517.4230756969</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-89525.76138179556</v>
+        <v>-124572.0698580349</v>
       </c>
       <c r="E24" t="n">
-        <v>758446.9244972755</v>
+        <v>739358.1951324774</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-90269.03142409536</v>
+        <v>-127455.3905883589</v>
       </c>
       <c r="E25" t="n">
-        <v>826756.8047708611</v>
+        <v>804715.8116051955</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-90810.72617570739</v>
+        <v>-129896.0555278582</v>
       </c>
       <c r="E26" t="n">
-        <v>895268.2603351342</v>
+        <v>870516.0838687384</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-91203.26424665899</v>
+        <v>-131958.6301285534</v>
       </c>
       <c r="E27" t="n">
-        <v>963928.8725800678</v>
+        <v>936694.4464710853</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-91486.21033950125</v>
+        <v>-133699.0630153722</v>
       </c>
       <c r="E28" t="n">
-        <v>1032699.076803111</v>
+        <v>1003194.950787308</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-91689.15849114169</v>
+        <v>-135165.6468307667</v>
       </c>
       <c r="E29" t="n">
-        <v>1101549.278967356</v>
+        <v>1069969.304174956</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-91834.06250775498</v>
+        <v>-136399.9182841138</v>
       </c>
       <c r="E30" t="n">
-        <v>1170457.525266628</v>
+        <v>1136975.969924651</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-91937.08556567867</v>
+        <v>-137437.4883498665</v>
       </c>
       <c r="E31" t="n">
-        <v>1239407.652524589</v>
+        <v>1204179.33706194</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-92010.0452269127</v>
+        <v>-138308.7983394235</v>
       </c>
       <c r="E32" t="n">
-        <v>1308387.843179241</v>
+        <v>1271548.964275426</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-92061.52690351887</v>
+        <v>-139039.8011257252</v>
       </c>
       <c r="E33" t="n">
-        <v>1377389.51181852</v>
+        <v>1339058.898692166</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-92097.73145794428</v>
+        <v>-139652.5693461882</v>
       </c>
       <c r="E34" t="n">
-        <v>1446406.45757998</v>
+        <v>1406687.067674745</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-92123.11347053316</v>
+        <v>-140165.8341482342</v>
       </c>
       <c r="E35" t="n">
-        <v>1515434.225883276</v>
+        <v>1474414.740075741</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-92140.85724075339</v>
+        <v>-140595.4591471552</v>
       </c>
       <c r="E36" t="n">
-        <v>1584469.632428941</v>
+        <v>1542226.052279862</v>
       </c>
     </row>
   </sheetData>
